--- a/results/pvalue_OFFSIDES_rare_target_AUROC.xlsx
+++ b/results/pvalue_OFFSIDES_rare_target_AUROC.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9.764</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10.726</t>
+          <t>10.849</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.467</t>
+          <t>10.979</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.794</t>
+          <t>10.746</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.664</t>
+          <t>0.826</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.468</t>
+          <t>0.235</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
